--- a/02 测试/北京丽泽功能_集成测试20180212.xlsx
+++ b/02 测试/北京丽泽功能_集成测试20180212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求跟踪" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">问题清单!$B$1:$L$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求跟踪!$B$1:$N$24</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1909,32 +1909,11 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2224,6 +2203,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4613,16 +4613,16 @@
   <cols>
     <col min="1" max="1" width="8.83203125" style="26" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" style="152" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" style="145" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="26" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="26" customWidth="1"/>
     <col min="6" max="6" width="21.25" style="26" customWidth="1"/>
     <col min="7" max="7" width="42.25" style="26" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="153" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="153" customWidth="1"/>
-    <col min="11" max="11" width="10" style="153" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="153" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="146" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="146" customWidth="1"/>
+    <col min="11" max="11" width="10" style="146" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="146" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" style="26" customWidth="1"/>
     <col min="14" max="15" width="11.6640625" style="26" customWidth="1"/>
     <col min="16" max="259" width="8.83203125" style="26" customWidth="1"/>
@@ -4678,682 +4678,682 @@
       <c r="B2" s="41">
         <v>1</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="111" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="I2" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="117" t="s">
+      <c r="K2" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120" t="s">
+      <c r="L2" s="112"/>
+      <c r="M2" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="96"/>
+      <c r="N2" s="89"/>
     </row>
     <row r="3" spans="1:14" ht="16" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="41">
         <v>2</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="117" t="s">
+      <c r="H3" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="117" t="s">
+      <c r="I3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="117" t="s">
+      <c r="J3" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="117" t="s">
+      <c r="K3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="119"/>
-      <c r="M3" s="120" t="s">
+      <c r="L3" s="112"/>
+      <c r="M3" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="96"/>
+      <c r="N3" s="89"/>
     </row>
     <row r="4" spans="1:14" ht="16" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="41">
         <v>3</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120" t="s">
+      <c r="L4" s="112"/>
+      <c r="M4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="96"/>
+      <c r="N4" s="89"/>
     </row>
     <row r="5" spans="1:14" ht="16" customHeight="1">
       <c r="A5" s="40"/>
       <c r="B5" s="41">
         <v>4</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="117" t="s">
+      <c r="J5" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="117" t="s">
+      <c r="K5" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="119"/>
-      <c r="M5" s="120" t="s">
+      <c r="L5" s="112"/>
+      <c r="M5" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="96"/>
+      <c r="N5" s="89"/>
     </row>
     <row r="6" spans="1:14" ht="16" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="41">
         <v>5</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="117" t="s">
+      <c r="I6" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="117" t="s">
+      <c r="J6" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="117" t="s">
+      <c r="K6" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="119"/>
-      <c r="M6" s="120" t="s">
+      <c r="L6" s="112"/>
+      <c r="M6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="96"/>
+      <c r="N6" s="89"/>
     </row>
     <row r="7" spans="1:14" ht="16" customHeight="1">
       <c r="A7" s="40"/>
       <c r="B7" s="41">
         <v>6</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="117" t="s">
+      <c r="H7" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="117" t="s">
+      <c r="I7" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="117" t="s">
+      <c r="J7" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="119"/>
-      <c r="M7" s="120" t="s">
+      <c r="L7" s="112"/>
+      <c r="M7" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="96"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" spans="1:14" ht="16" customHeight="1">
       <c r="A8" s="40"/>
       <c r="B8" s="41">
         <v>7</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="117" t="s">
+      <c r="I8" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="117" t="s">
+      <c r="J8" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="117" t="s">
+      <c r="K8" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="119"/>
-      <c r="M8" s="120" t="s">
+      <c r="L8" s="112"/>
+      <c r="M8" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="96"/>
+      <c r="N8" s="89"/>
     </row>
     <row r="9" spans="1:14" ht="16" customHeight="1">
       <c r="A9" s="40"/>
       <c r="B9" s="41">
         <v>8</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="117" t="s">
+      <c r="H9" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="117" t="s">
+      <c r="K9" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120" t="s">
+      <c r="L9" s="112"/>
+      <c r="M9" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="96"/>
+      <c r="N9" s="89"/>
     </row>
     <row r="10" spans="1:14" ht="16" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="41">
         <v>9</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="123" t="s">
+      <c r="G10" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="117" t="s">
+      <c r="I10" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="117" t="s">
+      <c r="J10" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="117" t="s">
+      <c r="K10" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="119"/>
-      <c r="M10" s="120" t="s">
+      <c r="L10" s="112"/>
+      <c r="M10" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="96"/>
+      <c r="N10" s="89"/>
     </row>
     <row r="11" spans="1:14" ht="16" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="41">
         <v>10</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="117" t="s">
+      <c r="I11" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="117" t="s">
+      <c r="J11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="117" t="s">
+      <c r="K11" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="119"/>
-      <c r="M11" s="120" t="s">
+      <c r="L11" s="112"/>
+      <c r="M11" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="96"/>
+      <c r="N11" s="89"/>
     </row>
     <row r="12" spans="1:14" ht="16" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="41">
         <v>11</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="117" t="s">
+      <c r="H12" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="117" t="s">
+      <c r="I12" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="117" t="s">
+      <c r="J12" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="117" t="s">
+      <c r="K12" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="119"/>
-      <c r="M12" s="120" t="s">
+      <c r="L12" s="112"/>
+      <c r="M12" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="96"/>
+      <c r="N12" s="89"/>
     </row>
     <row r="13" spans="1:14" ht="16" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="41">
         <v>12</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="117" t="s">
+      <c r="I13" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="117" t="s">
+      <c r="J13" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="119"/>
-      <c r="M13" s="120" t="s">
+      <c r="L13" s="112"/>
+      <c r="M13" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="96"/>
+      <c r="N13" s="89"/>
     </row>
     <row r="14" spans="1:14" ht="16" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="41">
         <v>13</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="117" t="s">
+      <c r="I14" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="117" t="s">
+      <c r="J14" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="117" t="s">
+      <c r="K14" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120" t="s">
+      <c r="L14" s="112"/>
+      <c r="M14" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="96"/>
+      <c r="N14" s="89"/>
     </row>
     <row r="15" spans="1:14" ht="16" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="41">
         <v>14</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="117" t="s">
+      <c r="I15" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="117" t="s">
+      <c r="J15" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="117" t="s">
+      <c r="K15" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="119"/>
-      <c r="M15" s="120" t="s">
+      <c r="L15" s="112"/>
+      <c r="M15" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="96"/>
+      <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="16" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="41">
         <v>15</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="118" t="s">
+      <c r="E16" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="118" t="s">
+      <c r="F16" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="117" t="s">
+      <c r="H16" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="117" t="s">
+      <c r="I16" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="117" t="s">
+      <c r="J16" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="117" t="s">
+      <c r="K16" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120" t="s">
+      <c r="L16" s="112"/>
+      <c r="M16" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="96"/>
+      <c r="N16" s="89"/>
     </row>
     <row r="17" spans="1:14" ht="16" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="41">
         <v>16</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="118" t="s">
+      <c r="E17" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="117" t="s">
+      <c r="H17" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="117" t="s">
+      <c r="I17" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="117" t="s">
+      <c r="J17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="117" t="s">
+      <c r="K17" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="119"/>
-      <c r="M17" s="120" t="s">
+      <c r="L17" s="112"/>
+      <c r="M17" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="96"/>
+      <c r="N17" s="89"/>
     </row>
     <row r="18" spans="1:14" ht="49.5">
       <c r="A18" s="40"/>
       <c r="B18" s="41">
         <v>17</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="117" t="s">
+      <c r="H18" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="126">
+      <c r="I18" s="119">
         <v>43116</v>
       </c>
-      <c r="J18" s="126">
+      <c r="J18" s="119">
         <v>43116</v>
       </c>
-      <c r="K18" s="126">
+      <c r="K18" s="119">
         <v>43119</v>
       </c>
-      <c r="L18" s="119">
+      <c r="L18" s="112">
         <v>43119</v>
       </c>
-      <c r="M18" s="120" t="s">
+      <c r="M18" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="127"/>
+      <c r="N18" s="120"/>
     </row>
     <row r="19" spans="1:14" ht="82.5">
       <c r="A19" s="40"/>
       <c r="B19" s="41">
         <v>18</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="130" t="s">
+      <c r="F19" s="122"/>
+      <c r="G19" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="117" t="s">
+      <c r="H19" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="131">
+      <c r="I19" s="124">
         <v>43116</v>
       </c>
-      <c r="J19" s="131">
+      <c r="J19" s="124">
         <v>43116</v>
       </c>
-      <c r="K19" s="131">
+      <c r="K19" s="124">
         <v>43119</v>
       </c>
-      <c r="L19" s="132">
+      <c r="L19" s="125">
         <v>43119</v>
       </c>
-      <c r="M19" s="120" t="s">
+      <c r="M19" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="133" t="s">
+      <c r="N19" s="126" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5361,34 +5361,34 @@
       <c r="B20" s="41">
         <v>20</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="135" t="s">
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="117" t="s">
+      <c r="H20" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="136">
+      <c r="I20" s="129">
         <v>43119</v>
       </c>
-      <c r="J20" s="136">
+      <c r="J20" s="129">
         <v>43119</v>
       </c>
-      <c r="K20" s="136">
+      <c r="K20" s="129">
         <v>43119</v>
       </c>
-      <c r="L20" s="137">
+      <c r="L20" s="130">
         <v>43119</v>
       </c>
-      <c r="M20" s="120" t="s">
+      <c r="M20" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="133" t="s">
+      <c r="N20" s="126" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5396,73 +5396,73 @@
       <c r="B21" s="41">
         <v>22</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="139" t="s">
+      <c r="D21" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="141" t="s">
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="142" t="s">
+      <c r="H21" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="143">
+      <c r="I21" s="136">
         <v>43119</v>
       </c>
-      <c r="J21" s="143">
+      <c r="J21" s="136">
         <v>43119</v>
       </c>
-      <c r="K21" s="143">
+      <c r="K21" s="136">
         <v>43119</v>
       </c>
-      <c r="L21" s="144">
+      <c r="L21" s="137">
         <v>43119</v>
       </c>
-      <c r="M21" s="142" t="s">
+      <c r="M21" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="145"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="22" spans="1:14" ht="82.5">
       <c r="B22" s="41">
         <v>23</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="114" t="s">
+      <c r="E22" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="146"/>
-      <c r="G22" s="147" t="s">
+      <c r="F22" s="139"/>
+      <c r="G22" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="117" t="s">
+      <c r="H22" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="117" t="s">
+      <c r="I22" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="J22" s="117" t="s">
+      <c r="J22" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="117" t="s">
+      <c r="K22" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="L22" s="117" t="s">
+      <c r="L22" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="148" t="s">
+      <c r="M22" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="149" t="s">
+      <c r="N22" s="142" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5470,38 +5470,38 @@
       <c r="B23" s="41">
         <v>24</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="114" t="s">
+      <c r="E23" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="146"/>
-      <c r="G23" s="147" t="s">
+      <c r="F23" s="139"/>
+      <c r="G23" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="117" t="s">
+      <c r="H23" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="117" t="s">
+      <c r="I23" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="117" t="s">
+      <c r="J23" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="117" t="s">
+      <c r="K23" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="L23" s="117" t="s">
+      <c r="L23" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="148" t="s">
+      <c r="M23" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="149" t="s">
+      <c r="N23" s="142" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5509,110 +5509,110 @@
       <c r="B24" s="41">
         <v>25</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="114" t="s">
+      <c r="E24" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="147" t="s">
+      <c r="F24" s="139"/>
+      <c r="G24" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="117" t="s">
+      <c r="H24" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="117" t="s">
+      <c r="I24" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="117" t="s">
+      <c r="J24" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="117" t="s">
+      <c r="K24" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="L24" s="117" t="s">
+      <c r="L24" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="M24" s="148" t="s">
+      <c r="M24" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="149" t="s">
+      <c r="N24" s="142" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14" customHeight="1">
-      <c r="B25" s="150"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="150"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="143"/>
     </row>
     <row r="26" spans="1:14" ht="14" customHeight="1">
-      <c r="B26" s="150"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="150"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="143"/>
     </row>
     <row r="27" spans="1:14" ht="14" customHeight="1">
-      <c r="B27" s="150"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="150"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="143"/>
     </row>
     <row r="28" spans="1:14" ht="14" customHeight="1">
-      <c r="B28" s="150"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="150"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="143"/>
     </row>
     <row r="29" spans="1:14" ht="14" customHeight="1">
-      <c r="B29" s="150"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="150"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="143"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:N24"/>
@@ -5640,11 +5640,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:JA60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -5666,7 +5667,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" customHeight="1">
-      <c r="A1" s="103"/>
+      <c r="A1" s="96"/>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
@@ -5710,2354 +5711,2360 @@
     </row>
     <row r="2" spans="1:15" ht="49.5">
       <c r="A2" s="26"/>
-      <c r="B2" s="96">
+      <c r="B2" s="89">
         <v>1</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="108">
+      <c r="J2" s="101">
         <v>43133</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="K2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="109" t="s">
+      <c r="L2" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="96" t="s">
+      <c r="N2" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="49.5">
       <c r="A3" s="26"/>
-      <c r="B3" s="96">
+      <c r="B3" s="89">
         <v>2</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108">
+      <c r="I3" s="100"/>
+      <c r="J3" s="101">
         <v>43133</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="109" t="s">
+      <c r="L3" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="109" t="s">
+      <c r="M3" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="96" t="s">
+      <c r="N3" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5">
       <c r="A4" s="26"/>
-      <c r="B4" s="96">
+      <c r="B4" s="89">
         <v>3</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108">
+      <c r="I4" s="100"/>
+      <c r="J4" s="101">
         <v>43133</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="109" t="s">
+      <c r="L4" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="109" t="s">
+      <c r="M4" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="66">
       <c r="A5" s="26"/>
-      <c r="B5" s="96">
+      <c r="B5" s="89">
         <v>4</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108">
+      <c r="I5" s="100"/>
+      <c r="J5" s="101">
         <v>43133</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="109" t="s">
+      <c r="L5" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="109" t="s">
+      <c r="M5" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="96" t="s">
+      <c r="N5" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="33">
       <c r="A6" s="26"/>
-      <c r="B6" s="96">
+      <c r="B6" s="89">
         <v>5</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108">
+      <c r="I6" s="100"/>
+      <c r="J6" s="101">
         <v>43133</v>
       </c>
-      <c r="K6" s="109" t="s">
+      <c r="K6" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="96" t="s">
+      <c r="N6" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="96">
+      <c r="B7" s="89">
         <v>6</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="108">
+      <c r="I7" s="100"/>
+      <c r="J7" s="101">
         <v>43133</v>
       </c>
-      <c r="K7" s="109" t="s">
+      <c r="K7" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="109" t="s">
+      <c r="L7" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="109" t="s">
+      <c r="M7" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="96">
+      <c r="B8" s="89">
         <v>7</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="107"/>
-      <c r="J8" s="108">
+      <c r="I8" s="100"/>
+      <c r="J8" s="101">
         <v>43133</v>
       </c>
-      <c r="K8" s="109" t="s">
+      <c r="K8" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="109" t="s">
+      <c r="L8" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="109" t="s">
+      <c r="M8" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="96" t="s">
+      <c r="N8" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="26"/>
-      <c r="B9" s="96">
+      <c r="B9" s="89">
         <v>8</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108">
+      <c r="I9" s="100"/>
+      <c r="J9" s="101">
         <v>43133</v>
       </c>
-      <c r="K9" s="109" t="s">
+      <c r="K9" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="109" t="s">
+      <c r="L9" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="109" t="s">
+      <c r="M9" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="96" t="s">
+      <c r="N9" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="66">
+    <row r="10" spans="1:15" ht="66" hidden="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="96">
+      <c r="B10" s="89">
         <v>9</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="96" t="s">
+      <c r="H10" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="107"/>
-      <c r="J10" s="110">
+      <c r="I10" s="100"/>
+      <c r="J10" s="103">
         <v>43101</v>
       </c>
-      <c r="K10" s="110">
+      <c r="K10" s="103">
         <v>43115</v>
       </c>
-      <c r="L10" s="110">
+      <c r="L10" s="103">
         <v>43101</v>
       </c>
-      <c r="M10" s="110">
+      <c r="M10" s="103">
         <v>43115</v>
       </c>
-      <c r="N10" s="96" t="s">
+      <c r="N10" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="26"/>
-      <c r="B11" s="96">
+      <c r="B11" s="89">
         <v>10</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="96" t="s">
+      <c r="H11" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="107"/>
-      <c r="J11" s="108">
+      <c r="I11" s="100"/>
+      <c r="J11" s="101">
         <v>43133</v>
       </c>
-      <c r="K11" s="109" t="s">
+      <c r="K11" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="109" t="s">
+      <c r="L11" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M11" s="109" t="s">
+      <c r="M11" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="96" t="s">
+      <c r="N11" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="26"/>
-      <c r="B12" s="96">
+      <c r="B12" s="89">
         <v>11</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="107"/>
-      <c r="J12" s="108">
+      <c r="I12" s="100"/>
+      <c r="J12" s="101">
         <v>43133</v>
       </c>
-      <c r="K12" s="109" t="s">
+      <c r="K12" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="109" t="s">
+      <c r="L12" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="109" t="s">
+      <c r="M12" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="26"/>
-      <c r="B13" s="96">
+      <c r="B13" s="89">
         <v>12</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="96" t="s">
+      <c r="H13" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="107"/>
-      <c r="J13" s="108">
+      <c r="I13" s="100"/>
+      <c r="J13" s="101">
         <v>43133</v>
       </c>
-      <c r="K13" s="109" t="s">
+      <c r="K13" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="109" t="s">
+      <c r="L13" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="109" t="s">
+      <c r="M13" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="96" t="s">
+      <c r="N13" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="26"/>
-      <c r="B14" s="96">
+      <c r="B14" s="89">
         <v>13</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="96" t="s">
+      <c r="H14" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108">
+      <c r="I14" s="100"/>
+      <c r="J14" s="101">
         <v>43133</v>
       </c>
-      <c r="K14" s="109" t="s">
+      <c r="K14" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="109" t="s">
+      <c r="L14" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="109" t="s">
+      <c r="M14" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="96" t="s">
+      <c r="N14" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="132">
+    <row r="15" spans="1:15" ht="132" hidden="1">
       <c r="A15" s="26"/>
-      <c r="B15" s="96">
+      <c r="B15" s="89">
         <v>14</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H15" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="107"/>
-      <c r="J15" s="110">
+      <c r="I15" s="100"/>
+      <c r="J15" s="103">
         <v>43101</v>
       </c>
-      <c r="K15" s="110">
+      <c r="K15" s="103">
         <v>43115</v>
       </c>
-      <c r="L15" s="110">
+      <c r="L15" s="103">
         <v>43101</v>
       </c>
-      <c r="M15" s="110">
+      <c r="M15" s="103">
         <v>43115</v>
       </c>
-      <c r="N15" s="96" t="s">
+      <c r="N15" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="49.5">
+    <row r="16" spans="1:15" ht="49.5" hidden="1">
       <c r="A16" s="26"/>
-      <c r="B16" s="96">
+      <c r="B16" s="89">
         <v>15</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="106" t="s">
+      <c r="G16" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="107"/>
-      <c r="J16" s="110">
+      <c r="I16" s="100"/>
+      <c r="J16" s="103">
         <v>43101</v>
       </c>
-      <c r="K16" s="110">
+      <c r="K16" s="103">
         <v>43115</v>
       </c>
-      <c r="L16" s="110">
+      <c r="L16" s="103">
         <v>43101</v>
       </c>
-      <c r="M16" s="110">
+      <c r="M16" s="103">
         <v>43115</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="33">
+    <row r="17" spans="1:14" ht="33" hidden="1">
       <c r="A17" s="26"/>
-      <c r="B17" s="96">
+      <c r="B17" s="89">
         <v>16</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="107"/>
-      <c r="J17" s="110">
+      <c r="I17" s="100"/>
+      <c r="J17" s="103">
         <v>43101</v>
       </c>
-      <c r="K17" s="110">
+      <c r="K17" s="103">
         <v>43115</v>
       </c>
-      <c r="L17" s="110">
+      <c r="L17" s="103">
         <v>43101</v>
       </c>
-      <c r="M17" s="110">
+      <c r="M17" s="103">
         <v>43115</v>
       </c>
-      <c r="N17" s="96" t="s">
+      <c r="N17" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="49.5">
+    <row r="18" spans="1:14" ht="49.5" hidden="1">
       <c r="A18" s="26"/>
-      <c r="B18" s="96">
+      <c r="B18" s="89">
         <v>17</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="105" t="s">
+      <c r="E18" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="106" t="s">
+      <c r="G18" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="96" t="s">
+      <c r="H18" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="107"/>
-      <c r="J18" s="110">
+      <c r="I18" s="100"/>
+      <c r="J18" s="103">
         <v>43101</v>
       </c>
-      <c r="K18" s="110">
+      <c r="K18" s="103">
         <v>43115</v>
       </c>
-      <c r="L18" s="110">
+      <c r="L18" s="103">
         <v>43101</v>
       </c>
-      <c r="M18" s="110">
+      <c r="M18" s="103">
         <v>43115</v>
       </c>
-      <c r="N18" s="96" t="s">
+      <c r="N18" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="33">
+    <row r="19" spans="1:14" ht="33" hidden="1">
       <c r="A19" s="26"/>
-      <c r="B19" s="96">
+      <c r="B19" s="89">
         <v>18</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="105" t="s">
+      <c r="E19" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="106" t="s">
+      <c r="G19" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="96" t="s">
+      <c r="H19" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="107"/>
-      <c r="J19" s="110">
+      <c r="I19" s="100"/>
+      <c r="J19" s="103">
         <v>43101</v>
       </c>
-      <c r="K19" s="110">
+      <c r="K19" s="103">
         <v>43115</v>
       </c>
-      <c r="L19" s="110">
+      <c r="L19" s="103">
         <v>43101</v>
       </c>
-      <c r="M19" s="110">
+      <c r="M19" s="103">
         <v>43115</v>
       </c>
-      <c r="N19" s="96" t="s">
+      <c r="N19" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="82.5">
+    <row r="20" spans="1:14" ht="82.5" hidden="1">
       <c r="A20" s="26"/>
-      <c r="B20" s="96">
+      <c r="B20" s="89">
         <v>19</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="105" t="s">
+      <c r="E20" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="106" t="s">
+      <c r="G20" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="96" t="s">
+      <c r="H20" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="107"/>
-      <c r="J20" s="110">
+      <c r="I20" s="100"/>
+      <c r="J20" s="103">
         <v>43101</v>
       </c>
-      <c r="K20" s="110">
+      <c r="K20" s="103">
         <v>43115</v>
       </c>
-      <c r="L20" s="110">
+      <c r="L20" s="103">
         <v>43101</v>
       </c>
-      <c r="M20" s="110">
+      <c r="M20" s="103">
         <v>43115</v>
       </c>
-      <c r="N20" s="96" t="s">
+      <c r="N20" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="66">
+    <row r="21" spans="1:14" ht="66" hidden="1">
       <c r="A21" s="26"/>
-      <c r="B21" s="96">
+      <c r="B21" s="89">
         <v>20</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="105" t="s">
+      <c r="E21" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="106" t="s">
+      <c r="G21" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="96" t="s">
+      <c r="H21" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="107"/>
-      <c r="J21" s="110">
+      <c r="I21" s="100"/>
+      <c r="J21" s="103">
         <v>43101</v>
       </c>
-      <c r="K21" s="110">
+      <c r="K21" s="103">
         <v>43115</v>
       </c>
-      <c r="L21" s="110">
+      <c r="L21" s="103">
         <v>43101</v>
       </c>
-      <c r="M21" s="110">
+      <c r="M21" s="103">
         <v>43115</v>
       </c>
-      <c r="N21" s="96" t="s">
+      <c r="N21" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="82.5">
+    <row r="22" spans="1:14" ht="82.5" hidden="1">
       <c r="A22" s="26"/>
-      <c r="B22" s="96">
+      <c r="B22" s="89">
         <v>21</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="105" t="s">
+      <c r="F22" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="106" t="s">
+      <c r="G22" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="96" t="s">
+      <c r="H22" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="107"/>
-      <c r="J22" s="110">
+      <c r="I22" s="100"/>
+      <c r="J22" s="103">
         <v>43101</v>
       </c>
-      <c r="K22" s="110">
+      <c r="K22" s="103">
         <v>43115</v>
       </c>
-      <c r="L22" s="110">
+      <c r="L22" s="103">
         <v>43101</v>
       </c>
-      <c r="M22" s="110">
+      <c r="M22" s="103">
         <v>43115</v>
       </c>
-      <c r="N22" s="96" t="s">
+      <c r="N22" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="66">
+    <row r="23" spans="1:14" ht="66" hidden="1">
       <c r="A23" s="26"/>
-      <c r="B23" s="96">
+      <c r="B23" s="89">
         <v>22</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="105" t="s">
+      <c r="E23" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="105" t="s">
+      <c r="F23" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="106" t="s">
+      <c r="G23" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="96" t="s">
+      <c r="H23" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="107"/>
-      <c r="J23" s="110">
+      <c r="I23" s="100"/>
+      <c r="J23" s="103">
         <v>43101</v>
       </c>
-      <c r="K23" s="110">
+      <c r="K23" s="103">
         <v>43115</v>
       </c>
-      <c r="L23" s="110">
+      <c r="L23" s="103">
         <v>43101</v>
       </c>
-      <c r="M23" s="110">
+      <c r="M23" s="103">
         <v>43115</v>
       </c>
-      <c r="N23" s="96" t="s">
+      <c r="N23" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="82.5">
+    <row r="24" spans="1:14" ht="82.5" hidden="1">
       <c r="A24" s="26"/>
-      <c r="B24" s="96">
+      <c r="B24" s="89">
         <v>23</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="105" t="s">
+      <c r="E24" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="106" t="s">
+      <c r="G24" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="96" t="s">
+      <c r="H24" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="107"/>
-      <c r="J24" s="110">
+      <c r="I24" s="100"/>
+      <c r="J24" s="103">
         <v>43101</v>
       </c>
-      <c r="K24" s="110">
+      <c r="K24" s="103">
         <v>43115</v>
       </c>
-      <c r="L24" s="110">
+      <c r="L24" s="103">
         <v>43101</v>
       </c>
-      <c r="M24" s="110">
+      <c r="M24" s="103">
         <v>43115</v>
       </c>
-      <c r="N24" s="96" t="s">
+      <c r="N24" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="82.5">
+    <row r="25" spans="1:14" ht="82.5" hidden="1">
       <c r="A25" s="26"/>
-      <c r="B25" s="96">
+      <c r="B25" s="89">
         <v>24</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="106" t="s">
+      <c r="G25" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="96" t="s">
+      <c r="H25" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="107"/>
-      <c r="J25" s="110">
+      <c r="I25" s="100"/>
+      <c r="J25" s="103">
         <v>43101</v>
       </c>
-      <c r="K25" s="110">
+      <c r="K25" s="103">
         <v>43115</v>
       </c>
-      <c r="L25" s="110">
+      <c r="L25" s="103">
         <v>43101</v>
       </c>
-      <c r="M25" s="110">
+      <c r="M25" s="103">
         <v>43115</v>
       </c>
-      <c r="N25" s="96" t="s">
+      <c r="N25" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="49.5">
+    <row r="26" spans="1:14" ht="49.5" hidden="1">
       <c r="A26" s="26"/>
-      <c r="B26" s="96">
+      <c r="B26" s="89">
         <v>25</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="105" t="s">
+      <c r="D26" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="105" t="s">
+      <c r="E26" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="106" t="s">
+      <c r="G26" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="96" t="s">
+      <c r="H26" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="107"/>
-      <c r="J26" s="110">
+      <c r="I26" s="100"/>
+      <c r="J26" s="103">
         <v>43101</v>
       </c>
-      <c r="K26" s="110">
+      <c r="K26" s="103">
         <v>43115</v>
       </c>
-      <c r="L26" s="110">
+      <c r="L26" s="103">
         <v>43101</v>
       </c>
-      <c r="M26" s="110">
+      <c r="M26" s="103">
         <v>43115</v>
       </c>
-      <c r="N26" s="96" t="s">
+      <c r="N26" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="33">
+    <row r="27" spans="1:14" ht="33" hidden="1">
       <c r="A27" s="26"/>
-      <c r="B27" s="96">
+      <c r="B27" s="89">
         <v>26</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="105" t="s">
+      <c r="D27" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="105" t="s">
+      <c r="E27" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="105" t="s">
+      <c r="F27" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="96" t="s">
+      <c r="H27" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="107"/>
-      <c r="J27" s="110">
+      <c r="I27" s="100"/>
+      <c r="J27" s="103">
         <v>43101</v>
       </c>
-      <c r="K27" s="110">
+      <c r="K27" s="103">
         <v>43115</v>
       </c>
-      <c r="L27" s="110">
+      <c r="L27" s="103">
         <v>43101</v>
       </c>
-      <c r="M27" s="110">
+      <c r="M27" s="103">
         <v>43115</v>
       </c>
-      <c r="N27" s="96" t="s">
+      <c r="N27" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="49.5">
+    <row r="28" spans="1:14" ht="49.5" hidden="1">
       <c r="A28" s="26"/>
-      <c r="B28" s="96">
+      <c r="B28" s="89">
         <v>27</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="105" t="s">
+      <c r="D28" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="105" t="s">
+      <c r="E28" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="105" t="s">
+      <c r="F28" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="106" t="s">
+      <c r="G28" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="96" t="s">
+      <c r="H28" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="107"/>
-      <c r="J28" s="110">
+      <c r="I28" s="100"/>
+      <c r="J28" s="103">
         <v>43101</v>
       </c>
-      <c r="K28" s="110">
+      <c r="K28" s="103">
         <v>43115</v>
       </c>
-      <c r="L28" s="110">
+      <c r="L28" s="103">
         <v>43101</v>
       </c>
-      <c r="M28" s="110">
+      <c r="M28" s="103">
         <v>43115</v>
       </c>
-      <c r="N28" s="96" t="s">
+      <c r="N28" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="49.5">
       <c r="A29" s="26"/>
-      <c r="B29" s="96">
+      <c r="B29" s="89">
         <v>28</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="105" t="s">
+      <c r="D29" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="105" t="s">
+      <c r="E29" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="105" t="s">
+      <c r="F29" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="106" t="s">
+      <c r="G29" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="96" t="s">
+      <c r="H29" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="107"/>
-      <c r="J29" s="108">
+      <c r="I29" s="100"/>
+      <c r="J29" s="101">
         <v>43133</v>
       </c>
-      <c r="K29" s="109" t="s">
+      <c r="K29" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="109" t="s">
+      <c r="L29" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="109" t="s">
+      <c r="M29" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N29" s="96" t="s">
+      <c r="N29" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5">
       <c r="A30" s="26"/>
-      <c r="B30" s="96">
+      <c r="B30" s="89">
         <v>29</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="105" t="s">
+      <c r="D30" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="105" t="s">
+      <c r="E30" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="105" t="s">
+      <c r="F30" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="106" t="s">
+      <c r="G30" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="96" t="s">
+      <c r="H30" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="107"/>
-      <c r="J30" s="108">
+      <c r="I30" s="100"/>
+      <c r="J30" s="101">
         <v>43133</v>
       </c>
-      <c r="K30" s="109" t="s">
+      <c r="K30" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="109" t="s">
+      <c r="L30" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M30" s="109" t="s">
+      <c r="M30" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N30" s="96" t="s">
+      <c r="N30" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="33">
+    <row r="31" spans="1:14" ht="33" hidden="1">
       <c r="A31" s="26"/>
-      <c r="B31" s="96">
+      <c r="B31" s="89">
         <v>30</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="105" t="s">
+      <c r="E31" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="105" t="s">
+      <c r="F31" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="106" t="s">
+      <c r="G31" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="96" t="s">
+      <c r="H31" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="107"/>
-      <c r="J31" s="110">
+      <c r="I31" s="100"/>
+      <c r="J31" s="103">
         <v>43101</v>
       </c>
-      <c r="K31" s="110">
+      <c r="K31" s="103">
         <v>43115</v>
       </c>
-      <c r="L31" s="110">
+      <c r="L31" s="103">
         <v>43101</v>
       </c>
-      <c r="M31" s="110">
+      <c r="M31" s="103">
         <v>43115</v>
       </c>
-      <c r="N31" s="96" t="s">
+      <c r="N31" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="33">
+    <row r="32" spans="1:14" ht="33" hidden="1">
       <c r="A32" s="26"/>
-      <c r="B32" s="96">
+      <c r="B32" s="89">
         <v>31</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="105" t="s">
+      <c r="D32" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="105" t="s">
+      <c r="E32" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="105" t="s">
+      <c r="F32" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="106" t="s">
+      <c r="G32" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="96" t="s">
+      <c r="H32" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="107"/>
-      <c r="J32" s="110">
+      <c r="I32" s="100"/>
+      <c r="J32" s="103">
         <v>43101</v>
       </c>
-      <c r="K32" s="110">
+      <c r="K32" s="103">
         <v>43115</v>
       </c>
-      <c r="L32" s="110">
+      <c r="L32" s="103">
         <v>43101</v>
       </c>
-      <c r="M32" s="110">
+      <c r="M32" s="103">
         <v>43115</v>
       </c>
-      <c r="N32" s="96" t="s">
+      <c r="N32" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5">
       <c r="A33" s="26"/>
-      <c r="B33" s="96">
+      <c r="B33" s="89">
         <v>32</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="105" t="s">
+      <c r="D33" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="105" t="s">
+      <c r="E33" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="105" t="s">
+      <c r="F33" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="106" t="s">
+      <c r="G33" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="96" t="s">
+      <c r="H33" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="107"/>
-      <c r="J33" s="108">
+      <c r="I33" s="100"/>
+      <c r="J33" s="101">
         <v>43133</v>
       </c>
-      <c r="K33" s="109" t="s">
+      <c r="K33" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="109" t="s">
+      <c r="L33" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M33" s="109" t="s">
+      <c r="M33" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="96" t="s">
+      <c r="N33" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.5">
+    <row r="34" spans="1:14" ht="16.5" hidden="1">
       <c r="A34" s="26"/>
-      <c r="B34" s="96">
+      <c r="B34" s="89">
         <v>33</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="105" t="s">
+      <c r="D34" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="105" t="s">
+      <c r="E34" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="106" t="s">
+      <c r="G34" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="96" t="s">
+      <c r="H34" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="107"/>
-      <c r="J34" s="110">
+      <c r="I34" s="100"/>
+      <c r="J34" s="103">
         <v>43101</v>
       </c>
-      <c r="K34" s="110">
+      <c r="K34" s="103">
         <v>43115</v>
       </c>
-      <c r="L34" s="110">
+      <c r="L34" s="103">
         <v>43101</v>
       </c>
-      <c r="M34" s="110">
+      <c r="M34" s="103">
         <v>43115</v>
       </c>
-      <c r="N34" s="96" t="s">
+      <c r="N34" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5">
+    <row r="35" spans="1:14" ht="16.5" hidden="1">
       <c r="A35" s="26"/>
-      <c r="B35" s="96">
+      <c r="B35" s="89">
         <v>34</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="105" t="s">
+      <c r="D35" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="105" t="s">
+      <c r="E35" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="105" t="s">
+      <c r="F35" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="106" t="s">
+      <c r="G35" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="96" t="s">
+      <c r="H35" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="107"/>
-      <c r="J35" s="110">
+      <c r="I35" s="100"/>
+      <c r="J35" s="103">
         <v>43101</v>
       </c>
-      <c r="K35" s="110">
+      <c r="K35" s="103">
         <v>43115</v>
       </c>
-      <c r="L35" s="110">
+      <c r="L35" s="103">
         <v>43101</v>
       </c>
-      <c r="M35" s="110">
+      <c r="M35" s="103">
         <v>43115</v>
       </c>
-      <c r="N35" s="96" t="s">
+      <c r="N35" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="33">
+    <row r="36" spans="1:14" ht="33" hidden="1">
       <c r="A36" s="26"/>
-      <c r="B36" s="96">
+      <c r="B36" s="89">
         <v>35</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="105" t="s">
+      <c r="D36" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="105" t="s">
+      <c r="F36" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="106" t="s">
+      <c r="G36" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="96" t="s">
+      <c r="H36" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="107"/>
-      <c r="J36" s="110">
+      <c r="I36" s="100"/>
+      <c r="J36" s="103">
         <v>43101</v>
       </c>
-      <c r="K36" s="110">
+      <c r="K36" s="103">
         <v>43115</v>
       </c>
-      <c r="L36" s="110">
+      <c r="L36" s="103">
         <v>43101</v>
       </c>
-      <c r="M36" s="110">
+      <c r="M36" s="103">
         <v>43115</v>
       </c>
-      <c r="N36" s="96" t="s">
+      <c r="N36" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="33">
+    <row r="37" spans="1:14" ht="33" hidden="1">
       <c r="A37" s="26"/>
-      <c r="B37" s="96">
+      <c r="B37" s="89">
         <v>36</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="105" t="s">
+      <c r="D37" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="105" t="s">
+      <c r="E37" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="105" t="s">
+      <c r="F37" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="106" t="s">
+      <c r="G37" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="H37" s="96" t="s">
+      <c r="H37" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="107"/>
-      <c r="J37" s="110">
+      <c r="I37" s="100"/>
+      <c r="J37" s="103">
         <v>43101</v>
       </c>
-      <c r="K37" s="110">
+      <c r="K37" s="103">
         <v>43115</v>
       </c>
-      <c r="L37" s="110">
+      <c r="L37" s="103">
         <v>43101</v>
       </c>
-      <c r="M37" s="110">
+      <c r="M37" s="103">
         <v>43115</v>
       </c>
-      <c r="N37" s="96" t="s">
+      <c r="N37" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="165">
+    <row r="38" spans="1:14" ht="165" hidden="1">
       <c r="A38" s="26"/>
-      <c r="B38" s="96">
+      <c r="B38" s="89">
         <v>37</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="105" t="s">
+      <c r="D38" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="105" t="s">
+      <c r="E38" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="105" t="s">
+      <c r="F38" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="106" t="s">
+      <c r="G38" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="96" t="s">
+      <c r="H38" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I38" s="107"/>
-      <c r="J38" s="110">
+      <c r="I38" s="100"/>
+      <c r="J38" s="103">
         <v>43101</v>
       </c>
-      <c r="K38" s="110">
+      <c r="K38" s="103">
         <v>43115</v>
       </c>
-      <c r="L38" s="110">
+      <c r="L38" s="103">
         <v>43101</v>
       </c>
-      <c r="M38" s="110">
+      <c r="M38" s="103">
         <v>43115</v>
       </c>
-      <c r="N38" s="96" t="s">
+      <c r="N38" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="165">
+    <row r="39" spans="1:14" ht="165" hidden="1">
       <c r="A39" s="26"/>
-      <c r="B39" s="96">
+      <c r="B39" s="89">
         <v>38</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="105" t="s">
+      <c r="D39" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="105" t="s">
+      <c r="E39" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="105" t="s">
+      <c r="F39" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="106" t="s">
+      <c r="G39" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="H39" s="96" t="s">
+      <c r="H39" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="107"/>
-      <c r="J39" s="110">
+      <c r="I39" s="100"/>
+      <c r="J39" s="103">
         <v>43101</v>
       </c>
-      <c r="K39" s="110">
+      <c r="K39" s="103">
         <v>43115</v>
       </c>
-      <c r="L39" s="110">
+      <c r="L39" s="103">
         <v>43101</v>
       </c>
-      <c r="M39" s="110">
+      <c r="M39" s="103">
         <v>43115</v>
       </c>
-      <c r="N39" s="96" t="s">
+      <c r="N39" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="165">
+    <row r="40" spans="1:14" ht="165" hidden="1">
       <c r="A40" s="26"/>
-      <c r="B40" s="96">
+      <c r="B40" s="89">
         <v>39</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="105" t="s">
+      <c r="D40" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="E40" s="105" t="s">
+      <c r="E40" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="105" t="s">
+      <c r="F40" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="106" t="s">
+      <c r="G40" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="H40" s="96" t="s">
+      <c r="H40" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="107"/>
-      <c r="J40" s="110">
+      <c r="I40" s="100"/>
+      <c r="J40" s="103">
         <v>43101</v>
       </c>
-      <c r="K40" s="110">
+      <c r="K40" s="103">
         <v>43115</v>
       </c>
-      <c r="L40" s="110">
+      <c r="L40" s="103">
         <v>43101</v>
       </c>
-      <c r="M40" s="110">
+      <c r="M40" s="103">
         <v>43115</v>
       </c>
-      <c r="N40" s="96" t="s">
+      <c r="N40" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="66">
+    <row r="41" spans="1:14" ht="66" hidden="1">
       <c r="A41" s="26"/>
-      <c r="B41" s="96">
+      <c r="B41" s="89">
         <v>40</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="105" t="s">
+      <c r="D41" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="105" t="s">
+      <c r="E41" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="105" t="s">
+      <c r="F41" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="G41" s="106" t="s">
+      <c r="G41" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="H41" s="96" t="s">
+      <c r="H41" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I41" s="107"/>
-      <c r="J41" s="110">
+      <c r="I41" s="100"/>
+      <c r="J41" s="103">
         <v>43101</v>
       </c>
-      <c r="K41" s="110">
+      <c r="K41" s="103">
         <v>43115</v>
       </c>
-      <c r="L41" s="110">
+      <c r="L41" s="103">
         <v>43101</v>
       </c>
-      <c r="M41" s="110">
+      <c r="M41" s="103">
         <v>43115</v>
       </c>
-      <c r="N41" s="96" t="s">
+      <c r="N41" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="66">
+    <row r="42" spans="1:14" ht="66" hidden="1">
       <c r="A42" s="26"/>
-      <c r="B42" s="96">
+      <c r="B42" s="89">
         <v>41</v>
       </c>
-      <c r="C42" s="104" t="s">
+      <c r="C42" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="105" t="s">
+      <c r="D42" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="105" t="s">
+      <c r="E42" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="105" t="s">
+      <c r="F42" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="106" t="s">
+      <c r="G42" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="H42" s="96" t="s">
+      <c r="H42" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="107"/>
-      <c r="J42" s="110">
+      <c r="I42" s="100"/>
+      <c r="J42" s="103">
         <v>43101</v>
       </c>
-      <c r="K42" s="110">
+      <c r="K42" s="103">
         <v>43115</v>
       </c>
-      <c r="L42" s="110">
+      <c r="L42" s="103">
         <v>43101</v>
       </c>
-      <c r="M42" s="110">
+      <c r="M42" s="103">
         <v>43115</v>
       </c>
-      <c r="N42" s="96" t="s">
+      <c r="N42" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="66">
+    <row r="43" spans="1:14" ht="66" hidden="1">
       <c r="A43" s="26"/>
-      <c r="B43" s="96">
+      <c r="B43" s="89">
         <v>42</v>
       </c>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="105" t="s">
+      <c r="D43" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="E43" s="105" t="s">
+      <c r="E43" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="105" t="s">
+      <c r="F43" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="106" t="s">
+      <c r="G43" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="96" t="s">
+      <c r="H43" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="107"/>
-      <c r="J43" s="110">
+      <c r="I43" s="100"/>
+      <c r="J43" s="103">
         <v>43101</v>
       </c>
-      <c r="K43" s="110">
+      <c r="K43" s="103">
         <v>43115</v>
       </c>
-      <c r="L43" s="110">
+      <c r="L43" s="103">
         <v>43101</v>
       </c>
-      <c r="M43" s="110">
+      <c r="M43" s="103">
         <v>43115</v>
       </c>
-      <c r="N43" s="96" t="s">
+      <c r="N43" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="66">
+    <row r="44" spans="1:14" ht="66" hidden="1">
       <c r="A44" s="26"/>
-      <c r="B44" s="96">
+      <c r="B44" s="89">
         <v>43</v>
       </c>
-      <c r="C44" s="104" t="s">
+      <c r="C44" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="105" t="s">
+      <c r="D44" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="105" t="s">
+      <c r="E44" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="105" t="s">
+      <c r="F44" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="106" t="s">
+      <c r="G44" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="H44" s="96" t="s">
+      <c r="H44" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I44" s="107"/>
-      <c r="J44" s="110">
+      <c r="I44" s="100"/>
+      <c r="J44" s="103">
         <v>43101</v>
       </c>
-      <c r="K44" s="110">
+      <c r="K44" s="103">
         <v>43115</v>
       </c>
-      <c r="L44" s="110">
+      <c r="L44" s="103">
         <v>43101</v>
       </c>
-      <c r="M44" s="110">
+      <c r="M44" s="103">
         <v>43115</v>
       </c>
-      <c r="N44" s="96" t="s">
+      <c r="N44" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="66">
+    <row r="45" spans="1:14" ht="66" hidden="1">
       <c r="A45" s="26"/>
-      <c r="B45" s="96">
+      <c r="B45" s="89">
         <v>44</v>
       </c>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="105" t="s">
+      <c r="D45" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="105" t="s">
+      <c r="E45" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="105" t="s">
+      <c r="F45" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="106" t="s">
+      <c r="G45" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="H45" s="96" t="s">
+      <c r="H45" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I45" s="107"/>
-      <c r="J45" s="110">
+      <c r="I45" s="100"/>
+      <c r="J45" s="103">
         <v>43101</v>
       </c>
-      <c r="K45" s="110">
+      <c r="K45" s="103">
         <v>43115</v>
       </c>
-      <c r="L45" s="110">
+      <c r="L45" s="103">
         <v>43101</v>
       </c>
-      <c r="M45" s="110">
+      <c r="M45" s="103">
         <v>43115</v>
       </c>
-      <c r="N45" s="96" t="s">
+      <c r="N45" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="82.5">
+    <row r="46" spans="1:14" ht="82.5" hidden="1">
       <c r="A46" s="26"/>
-      <c r="B46" s="96">
+      <c r="B46" s="89">
         <v>45</v>
       </c>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="D46" s="105" t="s">
+      <c r="D46" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="105" t="s">
+      <c r="E46" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="105" t="s">
+      <c r="F46" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="G46" s="106" t="s">
+      <c r="G46" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="H46" s="96" t="s">
+      <c r="H46" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I46" s="107"/>
-      <c r="J46" s="110">
+      <c r="I46" s="100"/>
+      <c r="J46" s="103">
         <v>43101</v>
       </c>
-      <c r="K46" s="110">
+      <c r="K46" s="103">
         <v>43115</v>
       </c>
-      <c r="L46" s="110">
+      <c r="L46" s="103">
         <v>43101</v>
       </c>
-      <c r="M46" s="110">
+      <c r="M46" s="103">
         <v>43115</v>
       </c>
-      <c r="N46" s="96" t="s">
+      <c r="N46" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="165">
+    <row r="47" spans="1:14" ht="165" hidden="1">
       <c r="A47" s="26"/>
-      <c r="B47" s="96">
+      <c r="B47" s="89">
         <v>46</v>
       </c>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="105" t="s">
+      <c r="D47" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="105" t="s">
+      <c r="E47" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="105" t="s">
+      <c r="F47" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="106" t="s">
+      <c r="G47" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="H47" s="96" t="s">
+      <c r="H47" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="107"/>
-      <c r="J47" s="110">
+      <c r="I47" s="100"/>
+      <c r="J47" s="103">
         <v>43101</v>
       </c>
-      <c r="K47" s="110">
+      <c r="K47" s="103">
         <v>43115</v>
       </c>
-      <c r="L47" s="110">
+      <c r="L47" s="103">
         <v>43101</v>
       </c>
-      <c r="M47" s="110">
+      <c r="M47" s="103">
         <v>43115</v>
       </c>
-      <c r="N47" s="96" t="s">
+      <c r="N47" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="33">
+    <row r="48" spans="1:14" ht="33" hidden="1">
       <c r="A48" s="26"/>
-      <c r="B48" s="96">
+      <c r="B48" s="89">
         <v>47</v>
       </c>
-      <c r="C48" s="111" t="s">
+      <c r="C48" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="105" t="s">
+      <c r="D48" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="105" t="s">
+      <c r="E48" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="105" t="s">
+      <c r="F48" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="106" t="s">
+      <c r="G48" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="H48" s="96" t="s">
+      <c r="H48" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="107"/>
-      <c r="J48" s="110">
+      <c r="I48" s="100"/>
+      <c r="J48" s="103">
         <v>43101</v>
       </c>
-      <c r="K48" s="110">
+      <c r="K48" s="103">
         <v>43115</v>
       </c>
-      <c r="L48" s="110">
+      <c r="L48" s="103">
         <v>43101</v>
       </c>
-      <c r="M48" s="110">
+      <c r="M48" s="103">
         <v>43115</v>
       </c>
-      <c r="N48" s="96" t="s">
+      <c r="N48" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="33">
+    <row r="49" spans="1:14" ht="33" hidden="1">
       <c r="A49" s="26"/>
-      <c r="B49" s="96">
+      <c r="B49" s="89">
         <v>48</v>
       </c>
-      <c r="C49" s="111" t="s">
+      <c r="C49" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="105" t="s">
+      <c r="D49" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="105" t="s">
+      <c r="E49" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="105" t="s">
+      <c r="F49" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="G49" s="106" t="s">
+      <c r="G49" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="H49" s="96" t="s">
+      <c r="H49" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="107"/>
-      <c r="J49" s="110">
+      <c r="I49" s="100"/>
+      <c r="J49" s="103">
         <v>43101</v>
       </c>
-      <c r="K49" s="110">
+      <c r="K49" s="103">
         <v>43115</v>
       </c>
-      <c r="L49" s="110">
+      <c r="L49" s="103">
         <v>43101</v>
       </c>
-      <c r="M49" s="110">
+      <c r="M49" s="103">
         <v>43115</v>
       </c>
-      <c r="N49" s="96" t="s">
+      <c r="N49" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="49.5">
+    <row r="50" spans="1:14" ht="49.5" hidden="1">
       <c r="A50" s="26"/>
-      <c r="B50" s="96">
+      <c r="B50" s="89">
         <v>49</v>
       </c>
-      <c r="C50" s="111" t="s">
+      <c r="C50" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="105" t="s">
+      <c r="D50" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="105" t="s">
+      <c r="E50" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="105" t="s">
+      <c r="F50" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="G50" s="106" t="s">
+      <c r="G50" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="H50" s="96" t="s">
+      <c r="H50" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="107"/>
-      <c r="J50" s="110">
+      <c r="I50" s="100"/>
+      <c r="J50" s="103">
         <v>43101</v>
       </c>
-      <c r="K50" s="110">
+      <c r="K50" s="103">
         <v>43115</v>
       </c>
-      <c r="L50" s="110">
+      <c r="L50" s="103">
         <v>43101</v>
       </c>
-      <c r="M50" s="110">
+      <c r="M50" s="103">
         <v>43115</v>
       </c>
-      <c r="N50" s="96" t="s">
+      <c r="N50" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16.5">
+    <row r="51" spans="1:14" ht="16.5" hidden="1">
       <c r="A51" s="26"/>
-      <c r="B51" s="96">
+      <c r="B51" s="89">
         <v>50</v>
       </c>
-      <c r="C51" s="111" t="s">
+      <c r="C51" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="105" t="s">
+      <c r="D51" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="105" t="s">
+      <c r="E51" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="105" t="s">
+      <c r="F51" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="G51" s="106"/>
-      <c r="H51" s="96" t="s">
+      <c r="G51" s="99"/>
+      <c r="H51" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I51" s="107"/>
-      <c r="J51" s="110">
+      <c r="I51" s="100"/>
+      <c r="J51" s="103">
         <v>43101</v>
       </c>
-      <c r="K51" s="110">
+      <c r="K51" s="103">
         <v>43115</v>
       </c>
-      <c r="L51" s="110">
+      <c r="L51" s="103">
         <v>43101</v>
       </c>
-      <c r="M51" s="110">
+      <c r="M51" s="103">
         <v>43115</v>
       </c>
-      <c r="N51" s="96" t="s">
+      <c r="N51" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="16.5">
+    <row r="52" spans="1:14" ht="16.5" hidden="1">
       <c r="A52" s="26"/>
-      <c r="B52" s="96">
+      <c r="B52" s="89">
         <v>51</v>
       </c>
-      <c r="C52" s="111" t="s">
+      <c r="C52" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="105" t="s">
+      <c r="D52" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E52" s="105" t="s">
+      <c r="E52" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="105" t="s">
+      <c r="F52" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="G52" s="106"/>
-      <c r="H52" s="96" t="s">
+      <c r="G52" s="99"/>
+      <c r="H52" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="107"/>
-      <c r="J52" s="110">
+      <c r="I52" s="100"/>
+      <c r="J52" s="103">
         <v>43101</v>
       </c>
-      <c r="K52" s="110">
+      <c r="K52" s="103">
         <v>43115</v>
       </c>
-      <c r="L52" s="110">
+      <c r="L52" s="103">
         <v>43101</v>
       </c>
-      <c r="M52" s="110">
+      <c r="M52" s="103">
         <v>43115</v>
       </c>
-      <c r="N52" s="96" t="s">
+      <c r="N52" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="33">
+    <row r="53" spans="1:14" ht="33" hidden="1">
       <c r="A53" s="26"/>
-      <c r="B53" s="96">
+      <c r="B53" s="89">
         <v>52</v>
       </c>
-      <c r="C53" s="111" t="s">
+      <c r="C53" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="105" t="s">
+      <c r="D53" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E53" s="105" t="s">
+      <c r="E53" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="105" t="s">
+      <c r="F53" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="G53" s="106" t="s">
+      <c r="G53" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="H53" s="96" t="s">
+      <c r="H53" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I53" s="107"/>
-      <c r="J53" s="110">
+      <c r="I53" s="100"/>
+      <c r="J53" s="103">
         <v>43101</v>
       </c>
-      <c r="K53" s="110">
+      <c r="K53" s="103">
         <v>43115</v>
       </c>
-      <c r="L53" s="110">
+      <c r="L53" s="103">
         <v>43101</v>
       </c>
-      <c r="M53" s="110">
+      <c r="M53" s="103">
         <v>43115</v>
       </c>
-      <c r="N53" s="96" t="s">
+      <c r="N53" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="33">
+    <row r="54" spans="1:14" ht="33" hidden="1">
       <c r="A54" s="26"/>
-      <c r="B54" s="96">
+      <c r="B54" s="89">
         <v>53</v>
       </c>
-      <c r="C54" s="111" t="s">
+      <c r="C54" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="105" t="s">
+      <c r="D54" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="105" t="s">
+      <c r="E54" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="105" t="s">
+      <c r="F54" s="98" t="s">
         <v>168</v>
       </c>
-      <c r="G54" s="106" t="s">
+      <c r="G54" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="H54" s="96" t="s">
+      <c r="H54" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I54" s="107"/>
-      <c r="J54" s="110">
+      <c r="I54" s="100"/>
+      <c r="J54" s="103">
         <v>43101</v>
       </c>
-      <c r="K54" s="110">
+      <c r="K54" s="103">
         <v>43115</v>
       </c>
-      <c r="L54" s="110">
+      <c r="L54" s="103">
         <v>43101</v>
       </c>
-      <c r="M54" s="110">
+      <c r="M54" s="103">
         <v>43115</v>
       </c>
-      <c r="N54" s="96" t="s">
+      <c r="N54" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="49.5">
+    <row r="55" spans="1:14" ht="49.5" hidden="1">
       <c r="A55" s="26"/>
-      <c r="B55" s="96">
+      <c r="B55" s="89">
         <v>54</v>
       </c>
-      <c r="C55" s="111" t="s">
+      <c r="C55" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="105" t="s">
+      <c r="D55" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="105" t="s">
+      <c r="E55" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="105" t="s">
+      <c r="F55" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="G55" s="106" t="s">
+      <c r="G55" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="H55" s="96" t="s">
+      <c r="H55" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="96"/>
-      <c r="J55" s="110">
+      <c r="I55" s="89"/>
+      <c r="J55" s="103">
         <v>43101</v>
       </c>
-      <c r="K55" s="110">
+      <c r="K55" s="103">
         <v>43115</v>
       </c>
-      <c r="L55" s="110">
+      <c r="L55" s="103">
         <v>43101</v>
       </c>
-      <c r="M55" s="110">
+      <c r="M55" s="103">
         <v>43115</v>
       </c>
-      <c r="N55" s="96" t="s">
+      <c r="N55" s="89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="82.5">
+    <row r="56" spans="1:14" ht="82.5" hidden="1">
       <c r="A56" s="26"/>
-      <c r="B56" s="96">
+      <c r="B56" s="89">
         <v>55</v>
       </c>
-      <c r="C56" s="104" t="s">
+      <c r="C56" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="105" t="s">
+      <c r="D56" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="105" t="s">
+      <c r="E56" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="105"/>
-      <c r="G56" s="112" t="s">
+      <c r="F56" s="98"/>
+      <c r="G56" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="H56" s="96" t="s">
+      <c r="H56" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="96" t="s">
+      <c r="I56" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="109" t="s">
+      <c r="J56" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="K56" s="109" t="s">
+      <c r="K56" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="L56" s="109" t="s">
+      <c r="L56" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="M56" s="109" t="s">
+      <c r="M56" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="N56" s="96" t="s">
+      <c r="N56" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="16.5">
       <c r="A57" s="26"/>
-      <c r="B57" s="96">
+      <c r="B57" s="89">
         <v>56</v>
       </c>
-      <c r="C57" s="111" t="s">
+      <c r="C57" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="113" t="s">
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="H57" s="96" t="s">
+      <c r="H57" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I57" s="96" t="s">
+      <c r="I57" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="J57" s="108">
+      <c r="J57" s="101">
         <v>43133</v>
       </c>
-      <c r="K57" s="109" t="s">
+      <c r="K57" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L57" s="109" t="s">
+      <c r="L57" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M57" s="109" t="s">
+      <c r="M57" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N57" s="96" t="s">
+      <c r="N57" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="82.5">
       <c r="A58" s="26"/>
-      <c r="B58" s="96">
+      <c r="B58" s="89">
         <v>57</v>
       </c>
-      <c r="C58" s="111" t="s">
+      <c r="C58" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="114" t="s">
+      <c r="D58" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="115" t="s">
+      <c r="E58" s="108" t="s">
         <v>303</v>
       </c>
-      <c r="F58" s="57"/>
-      <c r="G58" s="116" t="s">
+      <c r="F58" s="50"/>
+      <c r="G58" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="H58" s="53" t="s">
+      <c r="H58" s="46" t="s">
         <v>68</v>
       </c>
       <c r="I58" s="26"/>
-      <c r="J58" s="117" t="s">
+      <c r="J58" s="110" t="s">
         <v>318</v>
       </c>
-      <c r="K58" s="109" t="s">
+      <c r="K58" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L58" s="109" t="s">
+      <c r="L58" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M58" s="109" t="s">
+      <c r="M58" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N58" s="96" t="s">
+      <c r="N58" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="82.5">
       <c r="A59" s="26"/>
-      <c r="B59" s="96">
+      <c r="B59" s="89">
         <v>58</v>
       </c>
-      <c r="C59" s="111" t="s">
+      <c r="C59" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="114" t="s">
+      <c r="D59" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="115" t="s">
+      <c r="E59" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="116" t="s">
+      <c r="F59" s="50"/>
+      <c r="G59" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="H59" s="53" t="s">
+      <c r="H59" s="46" t="s">
         <v>68</v>
       </c>
       <c r="I59" s="26"/>
-      <c r="J59" s="117" t="s">
+      <c r="J59" s="110" t="s">
         <v>318</v>
       </c>
-      <c r="K59" s="109" t="s">
+      <c r="K59" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L59" s="109" t="s">
+      <c r="L59" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M59" s="109" t="s">
+      <c r="M59" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N59" s="96" t="s">
+      <c r="N59" s="89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="82.5">
       <c r="A60" s="26"/>
-      <c r="B60" s="96">
+      <c r="B60" s="89">
         <v>59</v>
       </c>
-      <c r="C60" s="111" t="s">
+      <c r="C60" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="115" t="s">
+      <c r="E60" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="F60" s="57"/>
-      <c r="G60" s="116" t="s">
+      <c r="F60" s="50"/>
+      <c r="G60" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="H60" s="53" t="s">
+      <c r="H60" s="46" t="s">
         <v>68</v>
       </c>
       <c r="I60" s="26"/>
-      <c r="J60" s="117" t="s">
+      <c r="J60" s="110" t="s">
         <v>318</v>
       </c>
-      <c r="K60" s="109" t="s">
+      <c r="K60" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L60" s="109" t="s">
+      <c r="L60" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="M60" s="109" t="s">
+      <c r="M60" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="N60" s="96" t="s">
+      <c r="N60" s="89" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:N60"/>
+  <autoFilter ref="B1:N60">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="未开始"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
@@ -8077,9 +8084,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:IR54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -8376,31 +8383,31 @@
     </row>
     <row r="2" spans="1:252" ht="35" hidden="1" customHeight="1">
       <c r="A2" s="40"/>
-      <c r="B2" s="59">
+      <c r="B2" s="52">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="57">
         <v>0</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="57">
         <v>1</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="L2" s="66"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:252" ht="181.5" hidden="1">
@@ -8411,25 +8418,25 @@
       <c r="C3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="50" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="57">
         <v>0</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="57">
         <v>1</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="L3" s="66"/>
+      <c r="L3" s="59"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:252" ht="82.5" hidden="1">
@@ -8440,25 +8447,25 @@
       <c r="C4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="64">
         <v>0</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="64">
         <v>1</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="L4" s="66"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:252" ht="147" hidden="1" customHeight="1">
       <c r="A5" s="40"/>
@@ -8480,19 +8487,19 @@
       <c r="G5" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="64">
         <v>0</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="64">
         <v>1</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="65" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8516,17 +8523,17 @@
       <c r="G6" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="64">
         <v>0</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="64">
         <v>1</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="72"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:252" ht="19" hidden="1" customHeight="1">
       <c r="A7" s="40"/>
@@ -8548,17 +8555,17 @@
       <c r="G7" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="64">
         <v>0</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="64">
         <v>1</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="72"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:252" ht="409.5" hidden="1">
       <c r="A8" s="40"/>
@@ -8571,22 +8578,22 @@
       <c r="D8" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="50" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="57">
         <v>0</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="57">
         <v>5</v>
       </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="73" t="s">
+      <c r="K8" s="44"/>
+      <c r="L8" s="66" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8610,17 +8617,17 @@
       <c r="G9" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="57">
         <v>0</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="57">
         <v>2</v>
       </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="72"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:252" ht="51" customHeight="1">
       <c r="A10" s="40"/>
@@ -8642,17 +8649,17 @@
       <c r="G10" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="150" t="s">
         <v>207</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="153">
         <v>1</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="153">
         <v>4</v>
       </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47" t="s">
+      <c r="K10" s="44"/>
+      <c r="L10" s="147" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8676,11 +8683,11 @@
       <c r="G11" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="49"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="148"/>
     </row>
     <row r="12" spans="1:252" ht="35" customHeight="1">
       <c r="A12" s="40"/>
@@ -8702,11 +8709,11 @@
       <c r="G12" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="49"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="148"/>
     </row>
     <row r="13" spans="1:252" ht="35" customHeight="1">
       <c r="A13" s="40"/>
@@ -8728,11 +8735,11 @@
       <c r="G13" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="49"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="148"/>
     </row>
     <row r="14" spans="1:252" ht="35" customHeight="1">
       <c r="A14" s="40"/>
@@ -8754,11 +8761,11 @@
       <c r="G14" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="49"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="148"/>
     </row>
     <row r="15" spans="1:252" ht="19" customHeight="1">
       <c r="A15" s="40"/>
@@ -8780,11 +8787,11 @@
       <c r="G15" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="49"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="148"/>
     </row>
     <row r="16" spans="1:252" ht="16" customHeight="1">
       <c r="A16" s="40"/>
@@ -8803,12 +8810,12 @@
       <c r="F16" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="49"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="148"/>
     </row>
     <row r="17" spans="1:12" ht="16" customHeight="1">
       <c r="A17" s="40"/>
@@ -8827,12 +8834,12 @@
       <c r="F17" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="49"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="148"/>
     </row>
     <row r="18" spans="1:12" ht="35" customHeight="1">
       <c r="A18" s="40"/>
@@ -8854,11 +8861,11 @@
       <c r="G18" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="49"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="148"/>
     </row>
     <row r="19" spans="1:12" ht="51" customHeight="1">
       <c r="A19" s="40"/>
@@ -8880,11 +8887,11 @@
       <c r="G19" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="51"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="149"/>
     </row>
     <row r="20" spans="1:12" ht="83" customHeight="1">
       <c r="A20" s="40"/>
@@ -8906,17 +8913,17 @@
       <c r="G20" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="150" t="s">
         <v>224</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="153">
         <v>1</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="153">
         <v>5</v>
       </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47" t="s">
+      <c r="K20" s="44"/>
+      <c r="L20" s="147" t="s">
         <v>208</v>
       </c>
     </row>
@@ -8940,11 +8947,11 @@
       <c r="G21" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="49"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="148"/>
     </row>
     <row r="22" spans="1:12" ht="51" customHeight="1">
       <c r="A22" s="40"/>
@@ -8966,11 +8973,11 @@
       <c r="G22" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="49"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="148"/>
     </row>
     <row r="23" spans="1:12" ht="51" customHeight="1">
       <c r="A23" s="40"/>
@@ -8992,11 +8999,11 @@
       <c r="G23" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="49"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="148"/>
     </row>
     <row r="24" spans="1:12" ht="19" customHeight="1">
       <c r="A24" s="40"/>
@@ -9018,11 +9025,11 @@
       <c r="G24" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="49"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="148"/>
     </row>
     <row r="25" spans="1:12" ht="16" customHeight="1">
       <c r="A25" s="40"/>
@@ -9041,12 +9048,12 @@
       <c r="F25" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="49"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="148"/>
     </row>
     <row r="26" spans="1:12" ht="16" customHeight="1">
       <c r="A26" s="40"/>
@@ -9065,12 +9072,12 @@
       <c r="F26" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="49"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="148"/>
     </row>
     <row r="27" spans="1:12" ht="35" customHeight="1">
       <c r="A27" s="40"/>
@@ -9092,11 +9099,11 @@
       <c r="G27" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="49"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="148"/>
     </row>
     <row r="28" spans="1:12" ht="35" customHeight="1">
       <c r="A28" s="40"/>
@@ -9118,11 +9125,11 @@
       <c r="G28" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="51"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="149"/>
     </row>
     <row r="29" spans="1:12" ht="313.5" hidden="1">
       <c r="A29" s="40"/>
@@ -9135,22 +9142,22 @@
       <c r="D29" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="50" t="s">
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="I29" s="64">
+      <c r="I29" s="57">
         <v>0</v>
       </c>
-      <c r="J29" s="64">
+      <c r="J29" s="57">
         <v>3</v>
       </c>
-      <c r="K29" s="46"/>
-      <c r="L29" s="74" t="s">
+      <c r="K29" s="44"/>
+      <c r="L29" s="67" t="s">
         <v>315</v>
       </c>
     </row>
@@ -9165,24 +9172,24 @@
       <c r="D30" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="50" t="s">
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="57">
         <v>0</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="57">
         <v>8</v>
       </c>
-      <c r="K30" s="65" t="s">
+      <c r="K30" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="L30" s="72"/>
+      <c r="L30" s="65"/>
     </row>
     <row r="31" spans="1:12" ht="346.5" hidden="1">
       <c r="A31" s="40"/>
@@ -9195,22 +9202,22 @@
       <c r="D31" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="50" t="s">
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="57">
         <v>0</v>
       </c>
-      <c r="J31" s="64">
+      <c r="J31" s="57">
         <v>3</v>
       </c>
-      <c r="K31" s="46"/>
-      <c r="L31" s="72"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:12" ht="297" hidden="1">
       <c r="A32" s="40"/>
@@ -9223,22 +9230,22 @@
       <c r="D32" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="50" t="s">
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="I32" s="64">
+      <c r="I32" s="57">
         <v>0</v>
       </c>
-      <c r="J32" s="64">
+      <c r="J32" s="57">
         <v>2</v>
       </c>
-      <c r="K32" s="46"/>
-      <c r="L32" s="72"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="65"/>
     </row>
     <row r="33" spans="1:252" ht="122.5" hidden="1" customHeight="1">
       <c r="A33" s="40"/>
@@ -9251,22 +9258,22 @@
       <c r="D33" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="50" t="s">
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="I33" s="71">
+      <c r="I33" s="64">
         <v>0</v>
       </c>
-      <c r="J33" s="71">
+      <c r="J33" s="64">
         <v>3</v>
       </c>
-      <c r="K33" s="46"/>
-      <c r="L33" s="72" t="s">
+      <c r="K33" s="44"/>
+      <c r="L33" s="65" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9281,22 +9288,22 @@
       <c r="D34" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="50" t="s">
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="H34" s="68" t="s">
+      <c r="H34" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="57">
         <v>0</v>
       </c>
-      <c r="J34" s="64">
+      <c r="J34" s="57">
         <v>2</v>
       </c>
-      <c r="K34" s="46"/>
-      <c r="L34" s="72"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="65"/>
     </row>
     <row r="35" spans="1:252" ht="33" hidden="1">
       <c r="A35" s="40"/>
@@ -9318,17 +9325,17 @@
       <c r="G35" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="75" t="s">
+      <c r="H35" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="I35" s="71">
+      <c r="I35" s="64">
         <v>0</v>
       </c>
-      <c r="J35" s="71">
+      <c r="J35" s="64">
         <v>1</v>
       </c>
-      <c r="K35" s="46"/>
-      <c r="L35" s="72"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="65"/>
     </row>
     <row r="36" spans="1:252" ht="16.5" hidden="1">
       <c r="A36" s="40"/>
@@ -9350,17 +9357,17 @@
       <c r="G36" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="H36" s="75" t="s">
+      <c r="H36" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="I36" s="71">
+      <c r="I36" s="64">
         <v>0</v>
       </c>
-      <c r="J36" s="71">
+      <c r="J36" s="64">
         <v>1</v>
       </c>
-      <c r="K36" s="46"/>
-      <c r="L36" s="72"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="65"/>
     </row>
     <row r="37" spans="1:252" ht="33" hidden="1">
       <c r="A37" s="40"/>
@@ -9382,17 +9389,17 @@
       <c r="G37" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="75" t="s">
+      <c r="H37" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="I37" s="71">
+      <c r="I37" s="64">
         <v>0</v>
       </c>
-      <c r="J37" s="71">
+      <c r="J37" s="64">
         <v>1</v>
       </c>
-      <c r="K37" s="46"/>
-      <c r="L37" s="72"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="65"/>
     </row>
     <row r="38" spans="1:252" ht="33" hidden="1">
       <c r="A38" s="40"/>
@@ -9414,17 +9421,17 @@
       <c r="G38" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="75" t="s">
+      <c r="H38" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="I38" s="71">
+      <c r="I38" s="64">
         <v>0</v>
       </c>
-      <c r="J38" s="71">
+      <c r="J38" s="64">
         <v>1</v>
       </c>
-      <c r="K38" s="46"/>
-      <c r="L38" s="72"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="65"/>
     </row>
     <row r="39" spans="1:252" ht="45" hidden="1" customHeight="1">
       <c r="A39" s="40"/>
@@ -9440,81 +9447,81 @@
       <c r="E39" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="50" t="s">
+      <c r="F39" s="60"/>
+      <c r="G39" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="H39" s="68" t="s">
+      <c r="H39" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="I39" s="64">
+      <c r="I39" s="57">
         <v>0</v>
       </c>
-      <c r="J39" s="64">
+      <c r="J39" s="57">
         <v>1</v>
       </c>
-      <c r="K39" s="46"/>
-      <c r="L39" s="72"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="65"/>
     </row>
     <row r="40" spans="1:252" ht="409.5" hidden="1">
       <c r="A40" s="40"/>
       <c r="B40" s="41">
         <v>39</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="50" t="s">
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H40" s="68" t="s">
+      <c r="H40" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="I40" s="64">
+      <c r="I40" s="57">
         <v>0</v>
       </c>
-      <c r="J40" s="64">
+      <c r="J40" s="57">
         <v>13</v>
       </c>
-      <c r="K40" s="65" t="s">
+      <c r="K40" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="L40" s="73" t="s">
+      <c r="L40" s="66" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:252" s="12" customFormat="1" ht="35" hidden="1" customHeight="1">
-      <c r="A41" s="77"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="41">
         <v>40</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="76" t="s">
+      <c r="E41" s="71"/>
+      <c r="F41" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="79" t="s">
+      <c r="G41" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="H41" s="75" t="s">
+      <c r="H41" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="I41" s="71">
+      <c r="I41" s="64">
         <v>0</v>
       </c>
-      <c r="J41" s="71">
+      <c r="J41" s="64">
         <v>1</v>
       </c>
-      <c r="K41" s="80"/>
-      <c r="L41" s="72"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="65"/>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
       <c r="O41" s="20"/>
@@ -9761,52 +9768,52 @@
       <c r="B42" s="41">
         <v>41</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="50" t="s">
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="H42" s="68" t="s">
+      <c r="H42" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="I42" s="64">
+      <c r="I42" s="57">
         <v>0</v>
       </c>
-      <c r="J42" s="64">
+      <c r="J42" s="57">
         <v>1</v>
       </c>
-      <c r="K42" s="46"/>
-      <c r="L42" s="72"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="65"/>
     </row>
     <row r="43" spans="1:252" ht="35" hidden="1" customHeight="1">
       <c r="A43" s="40"/>
       <c r="B43" s="41">
         <v>42</v>
       </c>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="50" t="s">
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="H43" s="68" t="s">
+      <c r="H43" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="I43" s="83">
+      <c r="I43" s="76">
         <v>0</v>
       </c>
-      <c r="J43" s="83">
+      <c r="J43" s="76">
         <v>1</v>
       </c>
-      <c r="K43" s="46"/>
-      <c r="L43" s="72" t="s">
+      <c r="K43" s="44"/>
+      <c r="L43" s="65" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9815,330 +9822,330 @@
       <c r="B44" s="41">
         <v>43</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="50" t="s">
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="H44" s="68" t="s">
+      <c r="H44" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="I44" s="64">
+      <c r="I44" s="57">
         <v>0</v>
       </c>
-      <c r="J44" s="64">
+      <c r="J44" s="57">
         <v>1</v>
       </c>
-      <c r="K44" s="65" t="s">
+      <c r="K44" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="L44" s="72"/>
+      <c r="L44" s="65"/>
     </row>
     <row r="45" spans="1:252" ht="51" hidden="1" customHeight="1">
       <c r="A45" s="40"/>
       <c r="B45" s="41">
         <v>44</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="81" t="s">
+      <c r="D45" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="50" t="s">
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="H45" s="68" t="s">
+      <c r="H45" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="I45" s="64">
+      <c r="I45" s="57">
         <v>0</v>
       </c>
-      <c r="J45" s="64">
+      <c r="J45" s="57">
         <v>1</v>
       </c>
-      <c r="K45" s="65" t="s">
+      <c r="K45" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="L45" s="72"/>
+      <c r="L45" s="65"/>
     </row>
     <row r="46" spans="1:252" ht="19" hidden="1" customHeight="1">
       <c r="A46" s="40"/>
       <c r="B46" s="41">
         <v>45</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="81" t="s">
+      <c r="D46" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="50" t="s">
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="H46" s="70" t="s">
+      <c r="H46" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="I46" s="71">
+      <c r="I46" s="64">
         <v>0</v>
       </c>
-      <c r="J46" s="71">
+      <c r="J46" s="64">
         <v>1</v>
       </c>
-      <c r="K46" s="46"/>
-      <c r="L46" s="72"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="65"/>
     </row>
     <row r="47" spans="1:252" ht="35" hidden="1" customHeight="1">
       <c r="A47" s="40"/>
       <c r="B47" s="41">
         <v>46</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="50" t="s">
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="H47" s="70" t="s">
+      <c r="H47" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="I47" s="71">
+      <c r="I47" s="64">
         <v>0</v>
       </c>
-      <c r="J47" s="71">
+      <c r="J47" s="64">
         <v>1</v>
       </c>
-      <c r="K47" s="65" t="s">
+      <c r="K47" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="L47" s="72" t="s">
+      <c r="L47" s="65" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:252" ht="181.5" hidden="1">
       <c r="A48" s="40"/>
-      <c r="B48" s="84">
+      <c r="B48" s="77">
         <v>47</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="50" t="s">
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="H48" s="88" t="s">
+      <c r="H48" s="81" t="s">
         <v>275</v>
       </c>
-      <c r="I48" s="64">
+      <c r="I48" s="57">
         <v>0</v>
       </c>
-      <c r="J48" s="64">
+      <c r="J48" s="57">
         <v>4</v>
       </c>
-      <c r="K48" s="65" t="s">
+      <c r="K48" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="L48" s="72"/>
+      <c r="L48" s="65"/>
     </row>
     <row r="49" spans="1:12" ht="16.5" hidden="1">
       <c r="A49" s="26"/>
-      <c r="B49" s="89">
+      <c r="B49" s="82">
         <v>48</v>
       </c>
-      <c r="C49" s="90" t="s">
+      <c r="C49" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="92" t="s">
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="H49" s="93" t="s">
+      <c r="H49" s="86" t="s">
         <v>278</v>
       </c>
-      <c r="I49" s="94">
+      <c r="I49" s="87">
         <v>0</v>
       </c>
-      <c r="J49" s="94">
+      <c r="J49" s="87">
         <v>1</v>
       </c>
-      <c r="K49" s="65" t="s">
+      <c r="K49" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="L49" s="95" t="s">
+      <c r="L49" s="88" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="33" hidden="1">
       <c r="A50" s="26"/>
-      <c r="B50" s="96">
+      <c r="B50" s="89">
         <v>49</v>
       </c>
-      <c r="C50" s="97" t="s">
+      <c r="C50" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="97" t="s">
+      <c r="D50" s="90" t="s">
         <v>317</v>
       </c>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="98" t="s">
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="91" t="s">
         <v>265</v>
       </c>
-      <c r="H50" s="99" t="s">
+      <c r="H50" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="I50" s="53">
+      <c r="I50" s="46">
         <v>0</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J50" s="46">
         <v>2</v>
       </c>
-      <c r="K50" s="100" t="s">
+      <c r="K50" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="L50" s="101" t="s">
+      <c r="L50" s="94" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="14" customHeight="1">
       <c r="A51" s="26"/>
-      <c r="B51" s="53">
+      <c r="B51" s="46">
         <v>50</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55" t="s">
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="H51" s="56" t="s">
+      <c r="H51" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="I51" s="53">
+      <c r="I51" s="46">
         <v>1</v>
       </c>
-      <c r="J51" s="53">
+      <c r="J51" s="46">
         <v>1</v>
       </c>
-      <c r="K51" s="57" t="s">
+      <c r="K51" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="L51" s="58" t="s">
+      <c r="L51" s="51" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="14" customHeight="1">
       <c r="A52" s="26"/>
-      <c r="B52" s="53">
+      <c r="B52" s="46">
         <v>51</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55" t="s">
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="H52" s="56" t="s">
+      <c r="H52" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="I52" s="53">
+      <c r="I52" s="46">
         <v>1</v>
       </c>
-      <c r="J52" s="53">
+      <c r="J52" s="46">
         <v>1</v>
       </c>
-      <c r="K52" s="57" t="s">
+      <c r="K52" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="L52" s="58" t="s">
+      <c r="L52" s="51" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="66" hidden="1">
       <c r="A53" s="26"/>
-      <c r="B53" s="53">
+      <c r="B53" s="46">
         <v>52</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55" t="s">
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="H53" s="102" t="s">
+      <c r="H53" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="I53" s="53">
+      <c r="I53" s="46">
         <v>0</v>
       </c>
-      <c r="J53" s="53">
+      <c r="J53" s="46">
         <v>1</v>
       </c>
-      <c r="K53" s="100" t="s">
+      <c r="K53" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="L53" s="101" t="s">
+      <c r="L53" s="94" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="66" hidden="1">
       <c r="A54" s="26"/>
-      <c r="B54" s="53">
+      <c r="B54" s="46">
         <v>54</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55" t="s">
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="H54" s="102" t="s">
+      <c r="H54" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="53">
+      <c r="I54" s="46">
         <v>0</v>
       </c>
-      <c r="J54" s="53">
+      <c r="J54" s="46">
         <v>1</v>
       </c>
-      <c r="K54" s="100" t="s">
+      <c r="K54" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="L54" s="101" t="s">
+      <c r="L54" s="94" t="s">
         <v>299</v>
       </c>
     </row>
